--- a/Misc Documents/Companies Reachout List.xlsx
+++ b/Misc Documents/Companies Reachout List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harsh/Documents/Burnout/Misc Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98BB873B-F6BB-984F-802D-7BFDBB1F589E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C739C2-8C87-604D-96C9-9DDD08207B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{0A27E140-5220-734C-BAB3-636259A22D83}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{0A27E140-5220-734C-BAB3-636259A22D83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="243">
   <si>
     <t>Company Name</t>
   </si>
@@ -243,13 +243,535 @@
   </si>
   <si>
     <t>https://www.linkedin.com/company/alkymi/</t>
+  </si>
+  <si>
+    <t>Girls Who Invest</t>
+  </si>
+  <si>
+    <t>Portfolio Management for Women</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/girlswhoinvest/</t>
+  </si>
+  <si>
+    <t>Spatial</t>
+  </si>
+  <si>
+    <t>Internet Publishing</t>
+  </si>
+  <si>
+    <t>Metaverse for events and experiences</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/spatial-systems/</t>
+  </si>
+  <si>
+    <t>HTML+CSS</t>
+  </si>
+  <si>
+    <t>Providing HTML/CSS Services</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/html-css/</t>
+  </si>
+  <si>
+    <t>The Marshall Project</t>
+  </si>
+  <si>
+    <t>Online Audio and Video Media</t>
+  </si>
+  <si>
+    <t>Nonprofit covering America's criminal justice system</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/the-marshall-project/</t>
+  </si>
+  <si>
+    <t>PMG Global</t>
+  </si>
+  <si>
+    <t>Herndon, VA</t>
+  </si>
+  <si>
+    <t>Custom software development and IT staffing services to its clients.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/pmg-global/</t>
+  </si>
+  <si>
+    <t>UX Hires</t>
+  </si>
+  <si>
+    <t>Assist in hiring UX/CX and marketing experts</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/ux-hires/</t>
+  </si>
+  <si>
+    <t>Springfield, VA</t>
+  </si>
+  <si>
+    <t>Translation and Localization</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/ideatranslations/</t>
+  </si>
+  <si>
+    <t>Professional translation company</t>
+  </si>
+  <si>
+    <t>Idea Translations</t>
+  </si>
+  <si>
+    <t>Predict Spring</t>
+  </si>
+  <si>
+    <t>Mountain View, CA</t>
+  </si>
+  <si>
+    <t>Omni-channel commerce platform in retail POS Market</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/predictspring/</t>
+  </si>
+  <si>
+    <t>Ramped</t>
+  </si>
+  <si>
+    <t>Building a better job search platform</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/ramped-careers/</t>
+  </si>
+  <si>
+    <t>Perpetual</t>
+  </si>
+  <si>
+    <t>Darien, CT</t>
+  </si>
+  <si>
+    <t>Business Consulting and Services</t>
+  </si>
+  <si>
+    <t>Transatlantic talent advisory firm</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/beperpetual/</t>
+  </si>
+  <si>
+    <t>Metaprise Banking</t>
+  </si>
+  <si>
+    <t>Enabling quick B2B transactions</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/metaprise-commerce-online-bank/</t>
+  </si>
+  <si>
+    <t>SelectOne</t>
+  </si>
+  <si>
+    <t>Buffalo, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic recruiting </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/selectone-search-llc-/</t>
+  </si>
+  <si>
+    <t>Launchsource</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>Internet Marketplace Platforms</t>
+  </si>
+  <si>
+    <t>Assisting organization scale SDR organizations</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/launchsource/</t>
+  </si>
+  <si>
+    <t>Sketchfab</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/sketchfab/</t>
+  </si>
+  <si>
+    <t>Publishing 3D models</t>
+  </si>
+  <si>
+    <t>Synchron</t>
+  </si>
+  <si>
+    <t>Brooklyn, NY</t>
+  </si>
+  <si>
+    <t>Medical Equipment Manufacturing</t>
+  </si>
+  <si>
+    <t>Implantable Brain computer interface</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/synchron-inc./</t>
+  </si>
+  <si>
+    <t>Medivis</t>
+  </si>
+  <si>
+    <t>Hospitals and Health Care</t>
+  </si>
+  <si>
+    <t>Medical tech company focusing on AR and AI for medical imaging</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/medivis-inc/</t>
+  </si>
+  <si>
+    <t>Leucine</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Manufacturing</t>
+  </si>
+  <si>
+    <t>No-code software for compliance regulating and auditing for pharmaceutical manufacturers</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/leucine/</t>
+  </si>
+  <si>
+    <t>Codesmith</t>
+  </si>
+  <si>
+    <t>Helping individuals launch careers in SWE</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/school/codesmith-llc/</t>
+  </si>
+  <si>
+    <t>Captivate Talent</t>
+  </si>
+  <si>
+    <t>Connects talents with SaaS companies</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/captivate-talent/</t>
+  </si>
+  <si>
+    <t>Rebecca Minkoff</t>
+  </si>
+  <si>
+    <t>Apparel &amp; Fashion</t>
+  </si>
+  <si>
+    <t>Global fashion brand</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/rebecca-minkoff/</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Creative Ops System for Marketers</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/airhq/</t>
+  </si>
+  <si>
+    <t>Weleda</t>
+  </si>
+  <si>
+    <t>Irvington, NY</t>
+  </si>
+  <si>
+    <t>Cosmetics</t>
+  </si>
+  <si>
+    <t>Cosmetics made from natural materials</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/weleda-north-america/</t>
+  </si>
+  <si>
+    <t>All Turtles</t>
+  </si>
+  <si>
+    <t>Similar to consultants for solving problems faced in health and work</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/allturtlesco/</t>
+  </si>
+  <si>
+    <t>Seamless Talent</t>
+  </si>
+  <si>
+    <t>Recruiting firm</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/seamless-talent/</t>
+  </si>
+  <si>
+    <t>Modco Media</t>
+  </si>
+  <si>
+    <t>Media agency for creative individuals</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/modcomedia/</t>
+  </si>
+  <si>
+    <t>Kairos HQ</t>
+  </si>
+  <si>
+    <t>Venture Capital and Prival Equity Principals</t>
+  </si>
+  <si>
+    <t>Portfolio of brands across healthcare and financial services</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/kairoshq/</t>
+  </si>
+  <si>
+    <t>Botsford Associates</t>
+  </si>
+  <si>
+    <t>Consulting organizations focused around business automation for e-trading, etc.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/botsford-associates/</t>
+  </si>
+  <si>
+    <t>Delve Risk</t>
+  </si>
+  <si>
+    <t>Market reserch and provides insights</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/delve-risk/</t>
+  </si>
+  <si>
+    <t>AIGA Design</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Large professional membership for design</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/aiga/</t>
+  </si>
+  <si>
+    <t>Dark Reading</t>
+  </si>
+  <si>
+    <t>Community for cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/dark-reading/</t>
+  </si>
+  <si>
+    <t>Global Health Corps</t>
+  </si>
+  <si>
+    <t>Non-profit Organizations</t>
+  </si>
+  <si>
+    <t>Accelerator focused on health equity</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/global-health-corps/</t>
+  </si>
+  <si>
+    <t>Black Book Market Research LLC</t>
+  </si>
+  <si>
+    <t>Tampa, FL</t>
+  </si>
+  <si>
+    <t>Research Services</t>
+  </si>
+  <si>
+    <t>Strategic consulting on opinion mining, sentiment analysis, services evaluation, etc.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/blackbookmarketresearchllc/</t>
+  </si>
+  <si>
+    <t>Quantitative Systerms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive technology talent search firm </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/quantitative-systems/</t>
+  </si>
+  <si>
+    <t>Good Therapy</t>
+  </si>
+  <si>
+    <t>Denver, CO</t>
+  </si>
+  <si>
+    <t>Mental Health Care</t>
+  </si>
+  <si>
+    <t>Online therapist directory</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/goodtherapy-org/</t>
+  </si>
+  <si>
+    <t>COSO IT</t>
+  </si>
+  <si>
+    <t>Tysons, VA</t>
+  </si>
+  <si>
+    <t>Products in Big Data, Analytics and AI</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/coso-it/</t>
+  </si>
+  <si>
+    <t>RevGenius</t>
+  </si>
+  <si>
+    <t>Think Tanks</t>
+  </si>
+  <si>
+    <t>Community of revenue generating sales, marketing, customer success, and professionals for support</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/revgenius/</t>
+  </si>
+  <si>
+    <t>Playbook Technologies</t>
+  </si>
+  <si>
+    <t>Health, Wellness and Fitness</t>
+  </si>
+  <si>
+    <t>Creator platform for wellness, fitness and sports</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/playbooktechnologies/</t>
+  </si>
+  <si>
+    <t>Quanta Magazine</t>
+  </si>
+  <si>
+    <t>Book and Periodical Publishing</t>
+  </si>
+  <si>
+    <t>Magazine for ideas in science and math</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/quanta-magazine/</t>
+  </si>
+  <si>
+    <t>Agritecture</t>
+  </si>
+  <si>
+    <t>Design, planning and implementation, and operation of urban agriculture projects</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/agritectureconsulting/</t>
+  </si>
+  <si>
+    <t>Decrypt</t>
+  </si>
+  <si>
+    <t>Media brand covering business, politics, art, culture, tech, education and news</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/decrypt-media/</t>
+  </si>
+  <si>
+    <t>CoinDesk</t>
+  </si>
+  <si>
+    <t>Media Production</t>
+  </si>
+  <si>
+    <t>Trusted  media for global crypto economy</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/coindesk/</t>
+  </si>
+  <si>
+    <t>Saturn Cloud</t>
+  </si>
+  <si>
+    <t>Workspace for whole data science team</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/saturn-cloud/</t>
+  </si>
+  <si>
+    <t>Electrek.co</t>
+  </si>
+  <si>
+    <t>Croton, NY</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Manufacturing</t>
+  </si>
+  <si>
+    <t>Covers global transition and the energy infrastrcuture</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/electrek/</t>
+  </si>
+  <si>
+    <t>DataKind</t>
+  </si>
+  <si>
+    <t>Civic and Social Organizations</t>
+  </si>
+  <si>
+    <t>Nonprofit catering to implementing AI for the service of humanity</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/datakind/</t>
+  </si>
+  <si>
+    <t>Sanitation and Water for All</t>
+  </si>
+  <si>
+    <t>Partnered with govt. organizations to address the accountability and use of scarce resources effectively</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/sanitationandwaterforall/</t>
+  </si>
+  <si>
+    <t>Global Commerce Media GmbH</t>
+  </si>
+  <si>
+    <t>Performance media company building websites</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/global-commerce-media/</t>
+  </si>
+  <si>
+    <t>All Tech is Human</t>
+  </si>
+  <si>
+    <t>Nonprofits building more responsible tech ecosystems.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/all-tech-is-human/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +791,13 @@
       <b/>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -295,13 +824,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -617,17 +1147,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B4BF34-4CD2-5744-805D-F7B8984CD663}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="F42" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="2" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="65.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+    <col min="4" max="4" width="76.83203125" customWidth="1"/>
     <col min="5" max="5" width="42.83203125" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" customWidth="1"/>
   </cols>
@@ -911,6 +1442,805 @@
       </c>
       <c r="F16" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F63" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -930,6 +2260,7 @@
     <hyperlink ref="F14" r:id="rId13" xr:uid="{D3F2F969-ED97-A145-B4D7-7DCA927AB66F}"/>
     <hyperlink ref="F15" r:id="rId14" xr:uid="{BAAF5919-AC86-3342-B149-FC72A25ADAEF}"/>
     <hyperlink ref="F16" r:id="rId15" xr:uid="{48E37DA3-D785-2241-BD9B-9A28143BCA89}"/>
+    <hyperlink ref="F60" r:id="rId16" xr:uid="{B2C1D95E-45EE-5C4D-BEA8-9E901BB681BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
